--- a/app/templates/report/ac.xlsx
+++ b/app/templates/report/ac.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75EC159E-53A7-47D5-B1D4-FE8F8458CB83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76F079E-52D8-4F56-BFCD-E37E9D039F9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Ac!$A$2:$I$2</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -74,22 +74,12 @@
     <t>Fecha solicitud</t>
   </si>
   <si>
-    <t>Fecha confirmación</t>
-  </si>
-  <si>
     <t>Origen</t>
   </si>
   <si>
     <t>Suborigen</t>
   </si>
   <si>
-    <t>Inicio contrato</t>
-  </si>
-  <si>
-    <t>Fin
-contrato</t>
-  </si>
-  <si>
     <t xml:space="preserve">Check-in </t>
   </si>
   <si>
@@ -103,15 +93,6 @@
   </si>
   <si>
     <t>Piso</t>
-  </si>
-  <si>
-    <t>Plaza</t>
-  </si>
-  <si>
-    <t>Renta mensual</t>
-  </si>
-  <si>
-    <t>Servicios mensuales</t>
   </si>
   <si>
     <t>Ingreso gestora</t>
@@ -142,11 +123,29 @@
     <t>Management fee</t>
   </si>
   <si>
-    <t>Renta + Servicios</t>
-  </si>
-  <si>
     <t>Total
 servicios</t>
+  </si>
+  <si>
+    <t>Win date</t>
+  </si>
+  <si>
+    <t>Fecha inicio contrato</t>
+  </si>
+  <si>
+    <t>Fecha fin de contrato</t>
+  </si>
+  <si>
+    <t>Habitación</t>
+  </si>
+  <si>
+    <t>Renta confirmada</t>
+  </si>
+  <si>
+    <t>Servicios confirmados</t>
+  </si>
+  <si>
+    <t>Total renta confirmada</t>
   </si>
 </sst>
 </file>
@@ -740,73 +739,73 @@
         <v>11</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="V2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="W2" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="X2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB2" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC2" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="AE2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="AF2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="AG2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="W2" s="9" t="s">
+      <c r="AH2" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="X2" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y2" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z2" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC2" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD2" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH2" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:34" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -815,7 +814,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="1"/>
@@ -823,24 +822,24 @@
       <c r="I3" s="12"/>
       <c r="J3" s="12"/>
       <c r="K3" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="M3" s="12"/>
       <c r="N3" s="12"/>
       <c r="O3" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="S3" s="12"/>
       <c r="T3" s="12"/>

--- a/app/templates/report/ac.xlsx
+++ b/app/templates/report/ac.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76F079E-52D8-4F56-BFCD-E37E9D039F9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7590C087-3203-4E04-9EE5-DFA9E9430463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Ac" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Ac!$A$2:$I$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Ac!$A$1:$I$1</definedName>
   </definedNames>
   <calcPr calcId="191029" iterate="1"/>
   <extLst>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
-  <si>
-    <t>ActiveCampaign</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
   <si>
     <t>Id</t>
   </si>
@@ -116,17 +113,9 @@
     <t>Booking fee</t>
   </si>
   <si>
-    <t>Total
-renta</t>
-  </si>
-  <si>
     <t>Management fee</t>
   </si>
   <si>
-    <t>Total
-servicios</t>
-  </si>
-  <si>
     <t>Win date</t>
   </si>
   <si>
@@ -146,6 +135,12 @@
   </si>
   <si>
     <t>Total renta confirmada</t>
+  </si>
+  <si>
+    <t>Total servicios</t>
+  </si>
+  <si>
+    <t>Total renta</t>
   </si>
 </sst>
 </file>
@@ -156,7 +151,7 @@
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy\ hh:mm:ss"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -189,12 +184,6 @@
       <b/>
       <sz val="10"/>
       <color theme="0"/>
-      <name val="Century Gothic"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <name val="Century Gothic"/>
       <family val="2"/>
     </font>
@@ -244,7 +233,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -254,9 +243,6 @@
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -672,197 +658,192 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH3"/>
+  <dimension ref="A1:AH2"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="24.85546875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" style="5" customWidth="1"/>
-    <col min="2" max="3" width="40.140625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="5.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13.140625" style="5" customWidth="1"/>
-    <col min="13" max="13" width="12.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="13.140625" style="5" customWidth="1"/>
-    <col min="19" max="22" width="11" style="5" customWidth="1"/>
-    <col min="23" max="30" width="14" style="7" customWidth="1"/>
-    <col min="31" max="32" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="7.7109375" style="5" customWidth="1"/>
-    <col min="34" max="34" width="19.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="35" max="16384" width="24.85546875" style="5"/>
+    <col min="1" max="1" width="7.28515625" style="4" customWidth="1"/>
+    <col min="2" max="3" width="40.140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="5.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.140625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="13.140625" style="4" customWidth="1"/>
+    <col min="19" max="22" width="11" style="4" customWidth="1"/>
+    <col min="23" max="30" width="14" style="6" customWidth="1"/>
+    <col min="31" max="32" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="7.7109375" style="4" customWidth="1"/>
+    <col min="34" max="34" width="19.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="35" max="16384" width="24.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:34" s="9" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="W1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="X1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:34" s="10" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W2" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="X2" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y2" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z2" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA2" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB2" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC2" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD2" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AF2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="AH2" s="2" t="s">
+    <row r="2" spans="1:34" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:34" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="13"/>
-      <c r="X3" s="13"/>
-      <c r="Y3" s="13">
-        <f>W3+X3</f>
+      <c r="F2" s="10"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="12"/>
+      <c r="X2" s="12"/>
+      <c r="Y2" s="12">
+        <f>W2+X2</f>
         <v>0</v>
       </c>
-      <c r="Z3" s="13"/>
-      <c r="AA3" s="13"/>
-      <c r="AB3" s="13"/>
-      <c r="AC3" s="13"/>
-      <c r="AD3" s="13">
-        <f>Z3+AB3+AC3</f>
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="12"/>
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="12"/>
+      <c r="AD2" s="12">
+        <f>Z2+AB2+AC2</f>
         <v>0</v>
       </c>
-      <c r="AE3" s="12"/>
-      <c r="AF3" s="12"/>
-      <c r="AG3" s="12"/>
-      <c r="AH3" s="12"/>
+      <c r="AE2" s="11"/>
+      <c r="AF2" s="11"/>
+      <c r="AG2" s="11"/>
+      <c r="AH2" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/app/templates/report/ac.xlsx
+++ b/app/templates/report/ac.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7590C087-3203-4E04-9EE5-DFA9E9430463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AD6CE5A-3C8D-4885-A513-5E88C013C13A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ac" sheetId="1" r:id="rId1"/>
@@ -41,42 +41,21 @@
     <t>Id</t>
   </si>
   <si>
-    <t>Nombre</t>
-  </si>
-  <si>
     <t>Email</t>
   </si>
   <si>
-    <t>Teléfonos</t>
-  </si>
-  <si>
     <t>Fecha de nacimiento</t>
   </si>
   <si>
     <t>Edad</t>
   </si>
   <si>
-    <t>Género</t>
-  </si>
-  <si>
     <t>Nacionalidad</t>
   </si>
   <si>
-    <t>Escuela</t>
-  </si>
-  <si>
     <t>Idioma</t>
   </si>
   <si>
-    <t>Fecha solicitud</t>
-  </si>
-  <si>
-    <t>Origen</t>
-  </si>
-  <si>
-    <t>Suborigen</t>
-  </si>
-  <si>
     <t xml:space="preserve">Check-in </t>
   </si>
   <si>
@@ -98,12 +77,6 @@
     <t>Marca origen</t>
   </si>
   <si>
-    <t>Marca destino</t>
-  </si>
-  <si>
-    <t>Tipo Lead</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
@@ -125,9 +98,6 @@
     <t>Fecha fin de contrato</t>
   </si>
   <si>
-    <t>Habitación</t>
-  </si>
-  <si>
     <t>Renta confirmada</t>
   </si>
   <si>
@@ -141,14 +111,43 @@
   </si>
   <si>
     <t>Total renta</t>
+  </si>
+  <si>
+    <t>Nombre y apellido</t>
+  </si>
+  <si>
+    <t>Telefono</t>
+  </si>
+  <si>
+    <t>Genero</t>
+  </si>
+  <si>
+    <t>Escuela/Empresa</t>
+  </si>
+  <si>
+    <t>Fecha de solicitud</t>
+  </si>
+  <si>
+    <t>Origen Lead</t>
+  </si>
+  <si>
+    <t>Suborigen Lead</t>
+  </si>
+  <si>
+    <t>Habitacion</t>
+  </si>
+  <si>
+    <t>Marca final</t>
+  </si>
+  <si>
+    <t>Tipologia Lead</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="dd/mm/yyyy\ hh:mm:ss"/>
+  <numFmts count="1">
     <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
@@ -183,7 +182,7 @@
     <font>
       <b/>
       <sz val="10"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Century Gothic"/>
       <family val="2"/>
     </font>
@@ -204,7 +203,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00BFB2"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -233,14 +232,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -253,26 +246,20 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -662,188 +649,188 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="24.85546875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="24.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" style="4" customWidth="1"/>
-    <col min="2" max="3" width="40.140625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="5.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13.140625" style="4" customWidth="1"/>
-    <col min="13" max="13" width="12.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="13.140625" style="4" customWidth="1"/>
-    <col min="19" max="22" width="11" style="4" customWidth="1"/>
-    <col min="23" max="30" width="14" style="6" customWidth="1"/>
-    <col min="31" max="32" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="7.7109375" style="4" customWidth="1"/>
-    <col min="34" max="34" width="19.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="35" max="16384" width="24.85546875" style="4"/>
+    <col min="1" max="1" width="7.33203125" style="2" customWidth="1"/>
+    <col min="2" max="3" width="40.109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="5.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.109375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="18.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="13.109375" style="2" customWidth="1"/>
+    <col min="19" max="22" width="11" style="2" customWidth="1"/>
+    <col min="23" max="30" width="14" style="4" customWidth="1"/>
+    <col min="31" max="32" width="18.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="7.6640625" style="2" customWidth="1"/>
+    <col min="34" max="34" width="19.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="16384" width="24.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="9" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:34" s="5" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="I1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="K1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="R1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="S1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="T1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="U1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M1" s="2" t="s">
+      <c r="V1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="W1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="AE1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q1" s="2" t="s">
+      <c r="AF1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:34" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="W1" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="X1" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y1" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z1" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB1" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC1" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD1" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12">
+      <c r="F2" s="9"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9">
         <f>W2+X2</f>
         <v>0</v>
       </c>
-      <c r="Z2" s="12"/>
-      <c r="AA2" s="12"/>
-      <c r="AB2" s="12"/>
-      <c r="AC2" s="12"/>
-      <c r="AD2" s="12">
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="9"/>
+      <c r="AC2" s="9"/>
+      <c r="AD2" s="9">
         <f>Z2+AB2+AC2</f>
         <v>0</v>
       </c>
-      <c r="AE2" s="11"/>
-      <c r="AF2" s="11"/>
-      <c r="AG2" s="11"/>
-      <c r="AH2" s="11"/>
+      <c r="AE2" s="8"/>
+      <c r="AF2" s="8"/>
+      <c r="AG2" s="8"/>
+      <c r="AH2" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/app/templates/report/ac.xlsx
+++ b/app/templates/report/ac.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AD6CE5A-3C8D-4885-A513-5E88C013C13A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F927F5C-FE70-45F7-BD84-C37215B0D755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ac" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Id</t>
   </si>
@@ -80,9 +80,6 @@
     <t>Status</t>
   </si>
   <si>
-    <t>date</t>
-  </si>
-  <si>
     <t>Booking fee</t>
   </si>
   <si>
@@ -116,9 +113,6 @@
     <t>Nombre y apellido</t>
   </si>
   <si>
-    <t>Telefono</t>
-  </si>
-  <si>
     <t>Genero</t>
   </si>
   <si>
@@ -141,6 +135,9 @@
   </si>
   <si>
     <t>Tipologia Lead</t>
+  </si>
+  <si>
+    <t>Phone</t>
   </si>
 </sst>
 </file>
@@ -148,7 +145,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;€&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -243,7 +240,7 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -255,10 +252,10 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
@@ -647,43 +644,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH2"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="24.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="24.85546875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" style="2" customWidth="1"/>
-    <col min="2" max="3" width="40.109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="5.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13.109375" style="2" customWidth="1"/>
-    <col min="13" max="13" width="18.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="13.109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" style="2" customWidth="1"/>
+    <col min="2" max="3" width="40.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="5.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.140625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="13.140625" style="2" customWidth="1"/>
     <col min="19" max="22" width="11" style="2" customWidth="1"/>
     <col min="23" max="30" width="14" style="4" customWidth="1"/>
-    <col min="31" max="32" width="18.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="7.6640625" style="2" customWidth="1"/>
-    <col min="34" max="34" width="19.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="16384" width="24.88671875" style="2"/>
+    <col min="31" max="32" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="7.7109375" style="2" customWidth="1"/>
+    <col min="34" max="34" width="19.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="16384" width="24.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="5" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" s="5" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>2</v>
@@ -692,34 +691,34 @@
         <v>3</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>4</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J1" s="7" t="s">
         <v>5</v>
       </c>
       <c r="K1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="O1" s="7" t="s">
+      <c r="P1" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="Q1" s="7" t="s">
         <v>6</v>
@@ -737,28 +736,28 @@
         <v>10</v>
       </c>
       <c r="V1" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="W1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="X1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="X1" s="7" t="s">
+      <c r="Y1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" s="7" t="s">
+      <c r="Z1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" s="7" t="s">
+      <c r="AC1" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="AA1" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="AB1" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC1" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="AD1" s="7" t="s">
         <v>11</v>
@@ -767,48 +766,34 @@
         <v>12</v>
       </c>
       <c r="AF1" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AG1" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AH1" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:34" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
-      <c r="E2" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="E2" s="1"/>
       <c r="F2" s="9"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
-      <c r="K2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
       <c r="M2" s="8"/>
       <c r="N2" s="8"/>
-      <c r="O2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
       <c r="S2" s="8"/>
       <c r="T2" s="8"/>
       <c r="U2" s="8"/>

--- a/app/templates/report/ac.xlsx
+++ b/app/templates/report/ac.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F927F5C-FE70-45F7-BD84-C37215B0D755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B28078-5EC1-47E8-8F53-8FC0BA7E994E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Id</t>
   </si>
@@ -138,6 +138,9 @@
   </si>
   <si>
     <t>Phone</t>
+  </si>
+  <si>
+    <t>Tags</t>
   </si>
 </sst>
 </file>
@@ -346,9 +349,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -386,7 +389,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -492,7 +495,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -634,7 +637,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -642,11 +645,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH2"/>
+  <dimension ref="A1:AI2"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="24.85546875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -667,11 +668,11 @@
     <col min="23" max="30" width="14" style="4" customWidth="1"/>
     <col min="31" max="32" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="7.7109375" style="2" customWidth="1"/>
-    <col min="34" max="34" width="19.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="16384" width="24.85546875" style="2"/>
+    <col min="34" max="35" width="19.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="16384" width="24.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="5" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" s="5" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -774,8 +775,11 @@
       <c r="AH1" s="7" t="s">
         <v>13</v>
       </c>
+      <c r="AI1" s="7" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:34" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -816,6 +820,7 @@
       <c r="AF2" s="8"/>
       <c r="AG2" s="8"/>
       <c r="AH2" s="8"/>
+      <c r="AI2" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/app/templates/report/ac.xlsx
+++ b/app/templates/report/ac.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B28078-5EC1-47E8-8F53-8FC0BA7E994E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4470177B-F26A-418A-9D53-11B6A848DAAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ac" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
   <si>
     <t>Id</t>
   </si>
@@ -141,6 +141,9 @@
   </si>
   <si>
     <t>Tags</t>
+  </si>
+  <si>
+    <t>date</t>
   </si>
 </sst>
 </file>
@@ -649,30 +652,30 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="24.85546875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="24.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" style="2" customWidth="1"/>
-    <col min="2" max="3" width="40.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="5.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13.140625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="13.140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" style="2" customWidth="1"/>
+    <col min="2" max="3" width="40.109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="5.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.109375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="18.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="13.109375" style="2" customWidth="1"/>
     <col min="19" max="22" width="11" style="2" customWidth="1"/>
     <col min="23" max="30" width="14" style="4" customWidth="1"/>
-    <col min="31" max="32" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="7.7109375" style="2" customWidth="1"/>
-    <col min="34" max="35" width="19.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="16384" width="24.85546875" style="2"/>
+    <col min="31" max="32" width="18.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.21875" style="2" customWidth="1"/>
+    <col min="34" max="35" width="19.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="16384" width="24.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="5" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" s="5" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -779,25 +782,39 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
-      <c r="E2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="F2" s="9"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
+      <c r="K2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="M2" s="8"/>
       <c r="N2" s="8"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
+      <c r="O2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="S2" s="8"/>
       <c r="T2" s="8"/>
       <c r="U2" s="8"/>

--- a/app/templates/report/ac.xlsx
+++ b/app/templates/report/ac.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4470177B-F26A-418A-9D53-11B6A848DAAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A30A05-87C2-4747-88DE-1EA77B7DB0B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -140,10 +140,10 @@
     <t>Phone</t>
   </si>
   <si>
-    <t>Tags</t>
-  </si>
-  <si>
     <t>date</t>
+  </si>
+  <si>
+    <t>Etiquetas</t>
   </si>
 </sst>
 </file>
@@ -650,7 +650,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI2"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="24.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
@@ -779,7 +779,7 @@
         <v>13</v>
       </c>
       <c r="AI1" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -788,7 +788,7 @@
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F2" s="9"/>
       <c r="G2" s="8"/>
@@ -796,24 +796,24 @@
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
       <c r="K2" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M2" s="8"/>
       <c r="N2" s="8"/>
       <c r="O2" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S2" s="8"/>
       <c r="T2" s="8"/>

--- a/app/templates/report/ac.xlsx
+++ b/app/templates/report/ac.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A30A05-87C2-4747-88DE-1EA77B7DB0B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50904B11-5C82-4FB7-889C-D04066CD824C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ac" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Id</t>
   </si>
@@ -138,9 +138,6 @@
   </si>
   <si>
     <t>Phone</t>
-  </si>
-  <si>
-    <t>date</t>
   </si>
   <si>
     <t>Etiquetas</t>
@@ -652,30 +649,30 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="24.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="24.85546875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" style="2" customWidth="1"/>
-    <col min="2" max="3" width="40.109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="5.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13.109375" style="2" customWidth="1"/>
-    <col min="13" max="13" width="18.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="13.109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" style="2" customWidth="1"/>
+    <col min="2" max="3" width="40.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="5.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.140625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="13.140625" style="2" customWidth="1"/>
     <col min="19" max="22" width="11" style="2" customWidth="1"/>
     <col min="23" max="30" width="14" style="4" customWidth="1"/>
-    <col min="31" max="32" width="18.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="10.21875" style="2" customWidth="1"/>
-    <col min="34" max="35" width="19.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="16384" width="24.88671875" style="2"/>
+    <col min="31" max="32" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.28515625" style="2" customWidth="1"/>
+    <col min="34" max="35" width="19.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="16384" width="24.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="5" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" s="5" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -779,42 +776,28 @@
         <v>13</v>
       </c>
       <c r="AI1" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
-      <c r="E2" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="E2" s="1"/>
       <c r="F2" s="9"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
-      <c r="K2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
       <c r="M2" s="8"/>
       <c r="N2" s="8"/>
-      <c r="O2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
       <c r="S2" s="8"/>
       <c r="T2" s="8"/>
       <c r="U2" s="8"/>

--- a/app/templates/report/ac.xlsx
+++ b/app/templates/report/ac.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50904B11-5C82-4FB7-889C-D04066CD824C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC6276C3-BBB8-4E4C-94E0-2D10925921B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -234,9 +234,6 @@
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -249,17 +246,20 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -651,176 +651,176 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="24.85546875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" style="2" customWidth="1"/>
-    <col min="2" max="3" width="40.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="5.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13.140625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="13.140625" style="2" customWidth="1"/>
-    <col min="19" max="22" width="11" style="2" customWidth="1"/>
-    <col min="23" max="30" width="14" style="4" customWidth="1"/>
-    <col min="31" max="32" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="10.28515625" style="2" customWidth="1"/>
-    <col min="34" max="35" width="19.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="16384" width="24.85546875" style="2"/>
+    <col min="1" max="1" width="7.28515625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="40.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="5.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="13.140625" style="1" customWidth="1"/>
+    <col min="19" max="22" width="11" style="1" customWidth="1"/>
+    <col min="23" max="30" width="14" style="3" customWidth="1"/>
+    <col min="31" max="32" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.28515625" style="1" customWidth="1"/>
+    <col min="34" max="35" width="19.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="16384" width="24.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="5" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:35" s="4" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="R1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="S1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="T1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="U1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="V1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="W1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="X1" s="7" t="s">
+      <c r="X1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="Y1" s="7" t="s">
+      <c r="Y1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="Z1" s="7" t="s">
+      <c r="Z1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="AA1" s="7" t="s">
+      <c r="AA1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" s="7" t="s">
+      <c r="AB1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="AC1" s="7" t="s">
+      <c r="AC1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="AD1" s="7" t="s">
+      <c r="AD1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="AE1" s="7" t="s">
+      <c r="AE1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="AF1" s="7" t="s">
+      <c r="AF1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="7" t="s">
+      <c r="AG1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="7" t="s">
+      <c r="AH1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="AI1" s="7" t="s">
+      <c r="AI1" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="9"/>
-      <c r="X2" s="9"/>
-      <c r="Y2" s="9">
+    <row r="2" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8">
         <f>W2+X2</f>
         <v>0</v>
       </c>
-      <c r="Z2" s="9"/>
-      <c r="AA2" s="9"/>
-      <c r="AB2" s="9"/>
-      <c r="AC2" s="9"/>
-      <c r="AD2" s="9">
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="8"/>
+      <c r="AD2" s="8">
         <f>Z2+AB2+AC2</f>
         <v>0</v>
       </c>
-      <c r="AE2" s="8"/>
-      <c r="AF2" s="8"/>
-      <c r="AG2" s="8"/>
-      <c r="AH2" s="8"/>
-      <c r="AI2" s="8"/>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="7"/>
+      <c r="AG2" s="7"/>
+      <c r="AH2" s="7"/>
+      <c r="AI2" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/app/templates/report/ac.xlsx
+++ b/app/templates/report/ac.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC6276C3-BBB8-4E4C-94E0-2D10925921B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FF3EE94-6568-4154-A0E0-21207E45DEF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -249,16 +249,16 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -804,18 +804,12 @@
       <c r="V2" s="7"/>
       <c r="W2" s="8"/>
       <c r="X2" s="8"/>
-      <c r="Y2" s="8">
-        <f>W2+X2</f>
-        <v>0</v>
-      </c>
+      <c r="Y2" s="8"/>
       <c r="Z2" s="8"/>
       <c r="AA2" s="8"/>
       <c r="AB2" s="8"/>
       <c r="AC2" s="8"/>
-      <c r="AD2" s="8">
-        <f>Z2+AB2+AC2</f>
-        <v>0</v>
-      </c>
+      <c r="AD2" s="8"/>
       <c r="AE2" s="7"/>
       <c r="AF2" s="7"/>
       <c r="AG2" s="7"/>
